--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目文件\个人文件夹\github\ExcelToJSON\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B993437-65D4-475C-BE60-0C34809AA13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5EB16D-AADE-41CA-ADFE-2E7A63F38B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +49,30 @@
   </si>
   <si>
     <t>jerry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +452,64 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB06121B-7A99-4C5C-BA91-5D1B357E0FF2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>